--- a/Test Cases Final/TC- 4 Logout.xlsx
+++ b/Test Cases Final/TC- 4 Logout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cror\Desktop\Test Cases\Test Cases Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A9AA28-3755-4923-B09F-CE4138E6B3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52353AC-B625-4682-9936-16E726AE7E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="69">
   <si>
     <t>COMMENTS</t>
   </si>
@@ -213,6 +213,21 @@
   </si>
   <si>
     <t>test, 54tga</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Exit application with password on clipboard</t>
+  </si>
+  <si>
+    <t>Application should wipe clipboard and then exit</t>
+  </si>
+  <si>
+    <t>Cannot close application until the 15 seconds of the clipboard are done</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -239,7 +254,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +273,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -404,7 +425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -468,6 +489,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -808,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:L8"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,6 +1480,30 @@
       </c>
       <c r="I29" s="7"/>
     </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="D5:H5"/>
